--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3263090.463952765</v>
+        <v>3252339.143198131</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11587896.62590677</v>
+        <v>11445344.09790122</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120971.347036313</v>
+        <v>1406398.039877625</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7485156.399036161</v>
+        <v>7656485.939332917</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>323.758580563119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1438,7 +1438,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>300.9831255412396</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1536,16 +1536,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124552</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1609,16 +1609,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>275.9723987444506</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481093</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1773,16 +1773,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124552</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1849,7 +1849,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1903,13 +1903,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741285</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>195.4096547491</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2086,7 +2086,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>111.6390227475378</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
@@ -2098,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>77.12881875749919</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>50.54174889927397</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481102</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>255.3342916587919</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480699</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2623,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633453</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800362</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2797,7 +2797,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>141.0565718466877</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>232.8617174157052</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912461</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>294.181775271962</v>
       </c>
       <c r="C32" t="n">
-        <v>301.0400788507923</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>20.6356953966573</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>111.3430383664065</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>91.27991379041876</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>78.6947547071093</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>60.06340662669382</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>56.86898163141271</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>108.7257678607094</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>56.20294852280225</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>7.80035401831956</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>0.3800862785287933</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>101.2169589399234</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846507</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605763</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>294.181775271962</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H35" t="n">
-        <v>242.5742208608971</v>
+        <v>78.19854428359298</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.6356953966573</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>239.2001920786164</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>91.27991379041876</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>78.6947547071093</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>60.06340662669382</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>57.88189625505063</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>39.05238001151932</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>0.3800862785287933</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128497</v>
+        <v>101.2169589399234</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846507</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323095</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>197.9709319450725</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605763</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>294.181775271962</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>276.720825379489</v>
       </c>
       <c r="D38" t="n">
-        <v>214.3095613653481</v>
+        <v>266.1309752291644</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807432</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>318.3239793501929</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>322.3696592619349</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>206.0556979958019</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>20.6356953966573</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>162.4431055673834</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>226.7089421145079</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>260.6889023258944</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>281.1790342869505</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>297.6858722645351</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>60.06340662669382</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>56.86898163141271</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>77.47374186750969</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>56.20294852280225</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>7.80035401831956</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>0.3800862785287933</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>101.2169589399234</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846507</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>197.6597718140943</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323095</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>197.9709319450725</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975186</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>161.284612953776</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W41" t="n">
-        <v>308.4090493874695</v>
+        <v>103.3399780919179</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>25.69619637623948</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H43" t="n">
-        <v>61.42978662487896</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>244.8308364370009</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W44" t="n">
-        <v>280.3840936224886</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.4415385849327</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>66.84974868946914</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1364.208554989046</v>
+        <v>1340.033859359386</v>
       </c>
       <c r="C11" t="n">
-        <v>1042.695670996707</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="D11" t="n">
-        <v>731.8796053380302</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>393.5409856878592</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218345</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941468</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163377</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.38360876788</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445839</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.048461132833</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.358762105094</v>
+        <v>1679.184066475435</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5196,7 +5196,7 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315257</v>
@@ -5217,7 +5217,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464212</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1301.367519464212</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>1301.367519464212</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>963.0288998140414</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
         <v>684.2689010822731</v>
@@ -5281,7 +5281,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5427,16 +5427,16 @@
         <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328087</v>
@@ -5454,7 +5454,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.000155131663</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C17" t="n">
-        <v>1108.487271139325</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D17" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5551,16 +5551,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243047</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921006</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X17" t="n">
-        <v>2111.84006127545</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y17" t="n">
-        <v>1769.150362247712</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
@@ -5676,7 +5676,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
         <v>771.6978860337115</v>
@@ -5691,7 +5691,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1570.289398767135</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1248.776514774796</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5755,13 +5755,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V20" t="n">
-        <v>2883.464452545969</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="W20" t="n">
-        <v>2578.145430223929</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X20" t="n">
-        <v>2252.129304910922</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1909.439605883183</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5910,7 +5910,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
         <v>408.6327023328087</v>
@@ -6016,19 +6016,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3211.712514468912</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3005.631670690821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3005.631670690821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2700.312648368781</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X23" t="n">
         <v>2700.312648368781</v>
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E25" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G25" t="n">
         <v>215.1557144998337</v>
@@ -6147,7 +6147,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K25" t="n">
         <v>408.6327023328087</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1644.05721849195</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C26" t="n">
-        <v>1644.05721849195</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D26" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131977</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630268</v>
       </c>
       <c r="F26" t="n">
-        <v>684.2689010822731</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G26" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T26" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U26" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V26" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W26" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X26" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y26" t="n">
-        <v>1983.207425607998</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F28" t="n">
         <v>335.4089181770414</v>
@@ -6378,16 +6378,16 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
         <v>771.6978860337115</v>
@@ -6429,7 +6429,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.472742224994</v>
+        <v>1850.138062270042</v>
       </c>
       <c r="C29" t="n">
-        <v>1696.959858232656</v>
+        <v>1528.625178277703</v>
       </c>
       <c r="D29" t="n">
         <v>1386.143792573978</v>
@@ -6457,58 +6457,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T29" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U29" t="n">
-        <v>2898.155827638543</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V29" t="n">
-        <v>2662.941971663083</v>
+        <v>2820.623417021138</v>
       </c>
       <c r="W29" t="n">
-        <v>2357.622949341042</v>
+        <v>2515.304394699097</v>
       </c>
       <c r="X29" t="n">
-        <v>2357.622949341042</v>
+        <v>2189.28826938609</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.622949341042</v>
+        <v>2189.28826938609</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F31" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G31" t="n">
-        <v>215.1557144998342</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657653</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L31" t="n">
         <v>771.6978860337115</v>
@@ -6666,7 +6666,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1690.224680302051</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C32" t="n">
-        <v>1386.143792573978</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D32" t="n">
-        <v>1386.143792573978</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.805172923807</v>
+        <v>921.8144766422133</v>
       </c>
       <c r="F32" t="n">
-        <v>684.2689010822731</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G32" t="n">
-        <v>316.6460838753429</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T32" t="n">
-        <v>3167.077706941467</v>
+        <v>3188.230468937697</v>
       </c>
       <c r="U32" t="n">
-        <v>2960.996863163376</v>
+        <v>3024.146523920138</v>
       </c>
       <c r="V32" t="n">
-        <v>2677.383608767879</v>
+        <v>2911.678808398515</v>
       </c>
       <c r="W32" t="n">
-        <v>2372.064586445838</v>
+        <v>2648.356684837006</v>
       </c>
       <c r="X32" t="n">
-        <v>2372.064586445838</v>
+        <v>2364.33745828453</v>
       </c>
       <c r="Y32" t="n">
-        <v>2029.3748874181</v>
+        <v>2063.644658017323</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1785.734441306721</v>
+        <v>586.502193213614</v>
       </c>
       <c r="C34" t="n">
-        <v>1664.247891326887</v>
+        <v>507.0125419943116</v>
       </c>
       <c r="D34" t="n">
-        <v>1561.580884862625</v>
+        <v>446.3424342905805</v>
       </c>
       <c r="E34" t="n">
-        <v>1461.117424228305</v>
+        <v>298.4293407081874</v>
       </c>
       <c r="F34" t="n">
-        <v>1361.677109678468</v>
+        <v>240.9859249188816</v>
       </c>
       <c r="G34" t="n">
-        <v>1241.42390600126</v>
+        <v>131.1619169787711</v>
       </c>
       <c r="H34" t="n">
-        <v>1142.656352167191</v>
+        <v>74.39126190523348</v>
       </c>
       <c r="I34" t="n">
-        <v>1092.78030793361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1184.408325632951</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1434.900893834234</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>1797.966077535137</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2188.628508387093</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2576.542270345364</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>2922.377254518184</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3201.49014020425</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3283.224997314773</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S34" t="n">
-        <v>3138.988746089673</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T34" t="n">
-        <v>2964.671763607272</v>
+        <v>1692.351186368187</v>
       </c>
       <c r="U34" t="n">
-        <v>2723.018529680989</v>
+        <v>1492.694851202435</v>
       </c>
       <c r="V34" t="n">
-        <v>2515.783674423175</v>
+        <v>1238.010362996548</v>
       </c>
       <c r="W34" t="n">
-        <v>2273.816137334288</v>
+        <v>948.5931929595872</v>
       </c>
       <c r="X34" t="n">
-        <v>2093.276219384344</v>
+        <v>810.0501737701745</v>
       </c>
       <c r="Y34" t="n">
-        <v>1919.933273188887</v>
+        <v>678.704126335249</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1364.208554989044</v>
+        <v>1637.342709548464</v>
       </c>
       <c r="C35" t="n">
-        <v>1042.695670996706</v>
+        <v>1357.826724316657</v>
       </c>
       <c r="D35" t="n">
-        <v>1042.695670996706</v>
+        <v>1089.007557418511</v>
       </c>
       <c r="E35" t="n">
-        <v>1042.695670996706</v>
+        <v>792.6658365288711</v>
       </c>
       <c r="F35" t="n">
-        <v>679.1593991551713</v>
+        <v>471.1264634478682</v>
       </c>
       <c r="G35" t="n">
-        <v>311.5365819482411</v>
+        <v>145.5005450014693</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.761684844871</v>
       </c>
       <c r="T35" t="n">
-        <v>3167.077706941466</v>
+        <v>3188.230468937698</v>
       </c>
       <c r="U35" t="n">
-        <v>2960.996863163376</v>
+        <v>3024.146523920139</v>
       </c>
       <c r="V35" t="n">
-        <v>2677.383608767878</v>
+        <v>2782.530168285173</v>
       </c>
       <c r="W35" t="n">
-        <v>2372.064586445837</v>
+        <v>2519.208044723663</v>
       </c>
       <c r="X35" t="n">
-        <v>2046.048461132831</v>
+        <v>2235.188818171188</v>
       </c>
       <c r="Y35" t="n">
-        <v>1703.358762105092</v>
+        <v>1934.496017903981</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052941</v>
+        <v>765.3952566308233</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254604</v>
+        <v>685.9056054115209</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611981</v>
+        <v>625.2354977077898</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268783</v>
+        <v>566.7689358340012</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770412</v>
+        <v>419.8789883360909</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>252.1761517108098</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>105.9589649286676</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315255</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328085</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337113</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1692.351186368187</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1492.694851202435</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1327.456894705153</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1127.486256376797</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>988.9432371873838</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>857.5971897524583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1924.130980975759</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C38" t="n">
-        <v>1602.618096983421</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>921.8144766422133</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>600.2751035612105</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>274.6491851148116</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.76478608434</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416635</v>
+        <v>3304.76168484487</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638545</v>
+        <v>3140.677739827311</v>
       </c>
       <c r="V38" t="n">
-        <v>2898.155827638545</v>
+        <v>2911.678808398515</v>
       </c>
       <c r="W38" t="n">
-        <v>2592.836805316504</v>
+        <v>2648.356684837006</v>
       </c>
       <c r="X38" t="n">
-        <v>2266.820680003498</v>
+        <v>2364.33745828453</v>
       </c>
       <c r="Y38" t="n">
-        <v>1924.130980975759</v>
+        <v>2063.644658017323</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052944</v>
+        <v>644.3810218987845</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254608</v>
+        <v>475.4448389708776</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611984</v>
+        <v>414.7747312671465</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>266.8616376847534</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770415</v>
+        <v>209.4182218954476</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>131.1619169787711</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>74.39126190523348</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315254</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328084</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1692.351186368187</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1492.694851202435</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1327.456894705153</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1127.486256376797</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>988.9432371873838</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>826.0294867290243</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.208022973022</v>
+        <v>1795.602445719545</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1468.636827539664</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1152.368027693445</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>808.576673855732</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>439.5876678266557</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>2881.797625075917</v>
       </c>
       <c r="V41" t="n">
-        <v>3009.337405520489</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.813113209913</v>
+        <v>2488.347820238416</v>
       </c>
       <c r="X41" t="n">
-        <v>2324.347354948834</v>
+        <v>2488.347820238416</v>
       </c>
       <c r="Y41" t="n">
-        <v>1934.208022973022</v>
+        <v>2140.205387023135</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1007.446783179745</v>
+        <v>715.4714023816775</v>
       </c>
       <c r="C43" t="n">
-        <v>838.5106002518381</v>
+        <v>588.5321182143019</v>
       </c>
       <c r="D43" t="n">
-        <v>688.3939608395024</v>
+        <v>562.5763642989085</v>
       </c>
       <c r="E43" t="n">
-        <v>540.4808672571093</v>
+        <v>456.6601694770466</v>
       </c>
       <c r="F43" t="n">
-        <v>393.5909197591989</v>
+        <v>351.7671207396675</v>
       </c>
       <c r="G43" t="n">
-        <v>225.8880831339178</v>
+        <v>226.0611828749177</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>2106.894846477423</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.125129807481</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1680.019161693656</v>
       </c>
       <c r="V43" t="n">
-        <v>1927.294548088493</v>
+        <v>1467.3315722483</v>
       </c>
       <c r="W43" t="n">
-        <v>1637.877378051532</v>
+        <v>1219.911300971871</v>
       </c>
       <c r="X43" t="n">
-        <v>1409.887827153515</v>
+        <v>1033.918648834385</v>
       </c>
       <c r="Y43" t="n">
-        <v>1189.095248009985</v>
+        <v>855.122968451386</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1892.184635123826</v>
+        <v>1326.039415676249</v>
       </c>
       <c r="C44" t="n">
-        <v>1523.222118183415</v>
+        <v>999.0737974963688</v>
       </c>
       <c r="D44" t="n">
-        <v>1164.956419576664</v>
+        <v>682.8049976501495</v>
       </c>
       <c r="E44" t="n">
-        <v>779.1681669784198</v>
+        <v>682.8049976501495</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>313.8159916210732</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3161.624972753923</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2950.091394788291</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2661.025406205252</v>
       </c>
       <c r="W44" t="n">
-        <v>3042.389565424839</v>
+        <v>2350.253649695669</v>
       </c>
       <c r="X44" t="n">
-        <v>2668.92380716376</v>
+        <v>2018.78479019512</v>
       </c>
       <c r="Y44" t="n">
-        <v>2278.784475187948</v>
+        <v>1670.64235697984</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574645</v>
+        <v>797.6353891180886</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>670.696104950713</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>562.5763642989085</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>456.6601694770466</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>351.7671207396675</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>226.0611828749177</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>121.8408948533068</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>2189.058833213835</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>2009.289116543892</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1762.183148430067</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1549.495558984711</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>1302.075287708282</v>
       </c>
       <c r="X46" t="n">
-        <v>590.8070661251691</v>
+        <v>1116.082635570796</v>
       </c>
       <c r="Y46" t="n">
-        <v>370.0144869816389</v>
+        <v>937.286955187797</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>152.2108253758121</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>176.8735421209845</v>
+        <v>219.9576593048888</v>
       </c>
       <c r="L5" t="n">
-        <v>182.15276230233</v>
+        <v>235.6024194272102</v>
       </c>
       <c r="M5" t="n">
-        <v>170.6907143895763</v>
+        <v>230.1637565873751</v>
       </c>
       <c r="N5" t="n">
-        <v>168.7922560961758</v>
+        <v>229.2276342938863</v>
       </c>
       <c r="O5" t="n">
-        <v>172.8557019027618</v>
+        <v>229.9231157892987</v>
       </c>
       <c r="P5" t="n">
-        <v>182.3778382331305</v>
+        <v>231.083555684007</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6175011982809</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>109.6636510644741</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>108.4883792396241</v>
+        <v>137.7516526844152</v>
       </c>
       <c r="L6" t="n">
-        <v>99.08556857396246</v>
+        <v>138.4336510327284</v>
       </c>
       <c r="M6" t="n">
-        <v>96.07579286827587</v>
+        <v>141.9931491685062</v>
       </c>
       <c r="N6" t="n">
-        <v>84.06444643947191</v>
+        <v>131.1970985296115</v>
       </c>
       <c r="O6" t="n">
-        <v>99.34678274386687</v>
+        <v>142.4639512953399</v>
       </c>
       <c r="P6" t="n">
-        <v>99.26290145971991</v>
+        <v>133.8682304990038</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.7780516067395</v>
+        <v>139.910797629968</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>112.2275406460178</v>
+        <v>134.815371746453</v>
       </c>
       <c r="M7" t="n">
-        <v>115.037011185094</v>
+        <v>138.8527120328868</v>
       </c>
       <c r="N7" t="n">
-        <v>104.3647933249821</v>
+        <v>127.6142100373232</v>
       </c>
       <c r="O7" t="n">
-        <v>116.9160502008701</v>
+        <v>138.3906495618562</v>
       </c>
       <c r="P7" t="n">
-        <v>119.2963951161054</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.96299667475891</v>
+        <v>15.3016983025325</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36.1423285599999</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38.27967649622144</v>
       </c>
     </row>
     <row r="12">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>83.92851037866831</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>5.981554650711189</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>67.27103207741382</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>127.3463093107765</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>196.0688822545526</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>225.1370133413213</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>106.4010846217536</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>5.981554650710279</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>52.37361334329853</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>345.9875814983119</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>166.6513331554027</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>47.9154044358371</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>17.25767630162267</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>127.8571537122099</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.058406907830829</v>
+        <v>127.857153712209</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>93.39834363674231</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>115.3659037481016</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>12.49124996410842</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>40.83191932994356</v>
+        <v>204.3240608525691</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>81.34234686904692</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>124.5139594435266</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>68.85687509492436</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.39044159700458</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>81.34234686904681</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749705.2008476023</v>
+        <v>773613.5270197866</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>697493.5256455297</v>
+        <v>704918.5269281863</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625043.5751421452</v>
+        <v>625043.5751421454</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625043.5751421454</v>
+        <v>662110.2395733042</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625043.5751421453</v>
+        <v>662110.2395733042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625043.5751421454</v>
+        <v>662110.2395733042</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559014.1255837441</v>
+        <v>617759.972435586</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>559014.1255837441</v>
+        <v>617759.9724355859</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811861</v>
       </c>
       <c r="C2" t="n">
-        <v>778338.2129835357</v>
+        <v>778312.6003664435</v>
       </c>
       <c r="D2" t="n">
-        <v>778391.8038845119</v>
+        <v>778383.8949127767</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953519</v>
+        <v>726304.4593953518</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953518</v>
+        <v>726304.4593953507</v>
       </c>
       <c r="G2" t="n">
-        <v>726304.4593953508</v>
+        <v>726304.4593953507</v>
       </c>
       <c r="H2" t="n">
-        <v>726304.4593953509</v>
+        <v>726304.4593953507</v>
       </c>
       <c r="I2" t="n">
         <v>726304.4593953508</v>
       </c>
       <c r="J2" t="n">
-        <v>726304.4593953516</v>
+        <v>726304.4593953518</v>
       </c>
       <c r="K2" t="n">
-        <v>726304.4593953516</v>
+        <v>726304.4593953508</v>
       </c>
       <c r="L2" t="n">
-        <v>726304.4593953509</v>
+        <v>770321.1234073516</v>
       </c>
       <c r="M2" t="n">
-        <v>726304.4593953508</v>
+        <v>770321.1234073518</v>
       </c>
       <c r="N2" t="n">
-        <v>726304.459395351</v>
+        <v>770321.1234073516</v>
       </c>
       <c r="O2" t="n">
-        <v>647894.4880447489</v>
+        <v>717655.1811813116</v>
       </c>
       <c r="P2" t="n">
-        <v>647894.4880447488</v>
+        <v>717655.1811813113</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>76955.46132113757</v>
+        <v>235.394382234099</v>
       </c>
       <c r="D3" t="n">
-        <v>150973.6771990672</v>
+        <v>200847.5250114622</v>
       </c>
       <c r="E3" t="n">
-        <v>951823.5594950289</v>
+        <v>972725.1766621993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487393</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>33261.54381834077</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>434600.7865411557</v>
+        <v>463063.1128397749</v>
       </c>
       <c r="D4" t="n">
-        <v>375482.0462084095</v>
+        <v>383917.1692412724</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866004</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866004</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="G4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="H4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="I4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866008</v>
       </c>
       <c r="J4" t="n">
-        <v>61265.27723866007</v>
+        <v>61265.2772386601</v>
       </c>
       <c r="K4" t="n">
-        <v>61265.27723866001</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="L4" t="n">
-        <v>61265.27723866006</v>
+        <v>87594.84521250907</v>
       </c>
       <c r="M4" t="n">
-        <v>61265.27723866007</v>
+        <v>87594.84521250907</v>
       </c>
       <c r="N4" t="n">
-        <v>61265.27723866006</v>
+        <v>87594.84521250907</v>
       </c>
       <c r="O4" t="n">
-        <v>14040.01085717763</v>
+        <v>56055.39944609825</v>
       </c>
       <c r="P4" t="n">
-        <v>14040.01085717763</v>
+        <v>56055.39944609825</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35469.9296421497</v>
+        <v>33633.23539014048</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
@@ -26493,25 +26493,25 @@
         <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086186</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>81750.82423086188</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086186</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.6714704734</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281534.1906790767</v>
+        <v>281490.0549003952</v>
       </c>
       <c r="C6" t="n">
-        <v>231312.0354790927</v>
+        <v>281336.724043646</v>
       </c>
       <c r="D6" t="n">
-        <v>212623.1191201545</v>
+        <v>154831.1382905192</v>
       </c>
       <c r="E6" t="n">
-        <v>-365039.8706601188</v>
+        <v>-387354.2568266504</v>
       </c>
       <c r="F6" t="n">
-        <v>586783.6888349102</v>
+        <v>585370.9198355478</v>
       </c>
       <c r="G6" t="n">
-        <v>586783.6888349092</v>
+        <v>585370.9198355478</v>
       </c>
       <c r="H6" t="n">
-        <v>586783.6888349091</v>
+        <v>585370.9198355478</v>
       </c>
       <c r="I6" t="n">
-        <v>586783.688834909</v>
+        <v>585370.9198355479</v>
       </c>
       <c r="J6" t="n">
-        <v>549203.5795400359</v>
+        <v>547790.810540675</v>
       </c>
       <c r="K6" t="n">
-        <v>586783.6888349098</v>
+        <v>585370.9198355479</v>
       </c>
       <c r="L6" t="n">
-        <v>586783.688834909</v>
+        <v>567459.4744097526</v>
       </c>
       <c r="M6" t="n">
-        <v>379595.120542836</v>
+        <v>393532.4499360205</v>
       </c>
       <c r="N6" t="n">
-        <v>586783.6888349092</v>
+        <v>600721.0182280934</v>
       </c>
       <c r="O6" t="n">
-        <v>559548.1366261779</v>
+        <v>582157.728680799</v>
       </c>
       <c r="P6" t="n">
-        <v>559548.1366261778</v>
+        <v>582157.7286807987</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="3">
@@ -26740,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356412</v>
+        <v>0.2585041348845039</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356412</v>
+        <v>0.2585041348845039</v>
       </c>
       <c r="D3" t="n">
-        <v>176.2858584739007</v>
+        <v>234.5215339911097</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758337</v>
+        <v>854.9966624673041</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022931</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.995431234265</v>
+        <v>339.4641592797013</v>
       </c>
       <c r="I5" t="n">
-        <v>197.3780308218049</v>
+        <v>210.4358253265461</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.86108748398677</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.8784759446111</v>
       </c>
       <c r="R5" t="n">
-        <v>128.5278723768722</v>
+        <v>149.8038385025047</v>
       </c>
       <c r="S5" t="n">
-        <v>201.2782251861741</v>
+        <v>208.9963885290647</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6086340353848</v>
+        <v>223.0913004109637</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3184736406064</v>
+        <v>251.3455697708283</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1617397880981</v>
+        <v>137.3429611354488</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4798574821198</v>
+        <v>112.230074178902</v>
       </c>
       <c r="I6" t="n">
-        <v>83.13806971705679</v>
+        <v>89.3774889131241</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.694058896356469</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>88.87169151188186</v>
+        <v>100.1233116570448</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3067360880407</v>
+        <v>171.6728431320337</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4320383100477</v>
+        <v>200.1624875127465</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9294230431385</v>
+        <v>225.941345500201</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8385833134622</v>
+        <v>167.9905132034614</v>
       </c>
       <c r="H7" t="n">
-        <v>160.8722331255608</v>
+        <v>162.223027965736</v>
       </c>
       <c r="I7" t="n">
-        <v>150.8675102286335</v>
+        <v>155.4364563751567</v>
       </c>
       <c r="J7" t="n">
-        <v>82.58477973541379</v>
+        <v>93.32622295836136</v>
       </c>
       <c r="K7" t="n">
-        <v>4.563842234460736</v>
+        <v>22.2153330907382</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.665061407065472</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.4009526111162</v>
+        <v>86.12300912732682</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4411110266864</v>
+        <v>177.2724313533803</v>
       </c>
       <c r="S7" t="n">
-        <v>221.3607505982589</v>
+        <v>224.0084742267005</v>
       </c>
       <c r="T7" t="n">
-        <v>227.2944426905688</v>
+        <v>227.9435976751111</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3107168449456</v>
+        <v>286.3190039298547</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q25" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>57.3000403983188</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859176</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>57.30004039831877</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859236</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.55206639151854</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>57.30004039831883</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3397408403761369</v>
+        <v>0.001039212602550768</v>
       </c>
       <c r="H5" t="n">
-        <v>3.479370881502113</v>
+        <v>0.01064283606587306</v>
       </c>
       <c r="I5" t="n">
-        <v>13.09785874860103</v>
+        <v>0.04006424385983854</v>
       </c>
       <c r="J5" t="n">
-        <v>28.83507915087418</v>
+        <v>0.08820187062574336</v>
       </c>
       <c r="K5" t="n">
-        <v>43.21630892399606</v>
+        <v>0.1321917400917174</v>
       </c>
       <c r="L5" t="n">
-        <v>53.61365266765727</v>
+        <v>0.1639955427770305</v>
       </c>
       <c r="M5" t="n">
-        <v>59.65551883769639</v>
+        <v>0.1824766398976428</v>
       </c>
       <c r="N5" t="n">
-        <v>60.6208075004151</v>
+        <v>0.1854293027046401</v>
       </c>
       <c r="O5" t="n">
-        <v>57.24250951892488</v>
+        <v>0.1750956323880259</v>
       </c>
       <c r="P5" t="n">
-        <v>48.855157522139</v>
+        <v>0.1494400712625538</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.68818867616858</v>
+        <v>0.1122232699337044</v>
       </c>
       <c r="R5" t="n">
-        <v>21.34124556427753</v>
+        <v>0.06527943864497977</v>
       </c>
       <c r="S5" t="n">
-        <v>7.741844400071228</v>
+        <v>0.02368105718062566</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48721552874654</v>
+        <v>0.004549153167665992</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02717926723009095</v>
+        <v>8.313700820406147e-05</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1817773751125719</v>
+        <v>0.0005560277618270461</v>
       </c>
       <c r="H6" t="n">
-        <v>1.755586754376681</v>
+        <v>0.005370057594487524</v>
       </c>
       <c r="I6" t="n">
-        <v>6.258563134358288</v>
+        <v>0.01914393829097505</v>
       </c>
       <c r="J6" t="n">
-        <v>17.17397560219259</v>
+        <v>0.05253242990138772</v>
       </c>
       <c r="K6" t="n">
-        <v>29.35305973473491</v>
+        <v>0.08978628994379981</v>
       </c>
       <c r="L6" t="n">
-        <v>39.46881120591172</v>
+        <v>0.1207287471458242</v>
       </c>
       <c r="M6" t="n">
-        <v>46.05824105374244</v>
+        <v>0.1408847535120546</v>
       </c>
       <c r="N6" t="n">
-        <v>47.2772656438614</v>
+        <v>0.1446135537218509</v>
       </c>
       <c r="O6" t="n">
-        <v>43.24946170057758</v>
+        <v>0.1322931491045253</v>
       </c>
       <c r="P6" t="n">
-        <v>34.71150595461033</v>
+        <v>0.1061769153264295</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.20372247928199</v>
+        <v>0.07097645605357171</v>
       </c>
       <c r="R6" t="n">
-        <v>11.28614264076127</v>
+        <v>0.03452249559834942</v>
       </c>
       <c r="S6" t="n">
-        <v>3.376435015797111</v>
+        <v>0.01032797180411201</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7326903847739189</v>
+        <v>0.002241182075083575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01195903783635342</v>
+        <v>3.658077380441094e-05</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.152396044996591</v>
+        <v>0.0004661549973327118</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354939381878783</v>
+        <v>0.004144541703558114</v>
       </c>
       <c r="I7" t="n">
-        <v>4.582964698624757</v>
+        <v>0.01401855210160556</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77440038125899</v>
+        <v>0.03295715831142272</v>
       </c>
       <c r="K7" t="n">
-        <v>17.70564959142212</v>
+        <v>0.05415873514465505</v>
       </c>
       <c r="L7" t="n">
-        <v>22.65713563522046</v>
+        <v>0.06930453478526519</v>
       </c>
       <c r="M7" t="n">
-        <v>23.88877276251108</v>
+        <v>0.07307191471825408</v>
       </c>
       <c r="N7" t="n">
-        <v>23.32075114025108</v>
+        <v>0.07133442791001403</v>
       </c>
       <c r="O7" t="n">
-        <v>21.54048825097271</v>
+        <v>0.06588888998662733</v>
       </c>
       <c r="P7" t="n">
-        <v>18.43160893304224</v>
+        <v>0.05637932804103996</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.76109064057818</v>
+        <v>0.03903412436756008</v>
       </c>
       <c r="R7" t="n">
-        <v>6.852280350483082</v>
+        <v>0.02096002378915993</v>
       </c>
       <c r="S7" t="n">
-        <v>2.655847438713317</v>
+        <v>0.008123810271698256</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6511467377127069</v>
+        <v>0.001991753170421586</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008312511545268611</v>
+        <v>2.542663621814795e-05</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33897,7 +33897,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
         <v>691.3565293623194</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34368,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34465,10 +34465,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35582,7 +35582,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35819,7 +35819,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36050,10 +36050,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36290,10 +36290,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36530,7 +36530,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36849,7 +36849,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193706</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165799</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165858</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38113,10 +38113,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
